--- a/camera_parameters.xlsx
+++ b/camera_parameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUAAclouddiskV2\个人文件\Work\10 智能车组\Target_detection\My_Monocular-camera-distance-prediction-master\My_ObjectDistance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eddy\Desktop\Monocular_Distance_Detect-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B8CA2-F609-49A9-AFC9-A2D6424AF9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21080" windowHeight="14330"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="内参矩阵" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
@@ -391,11 +392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -408,13 +409,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>582.48829999999998</v>
+        <v>1006.9546</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>310.27999999999997</v>
+        <v>639.15449999999998</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -422,10 +423,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>579.37</v>
+        <v>995.98789999999997</v>
       </c>
       <c r="C2" s="2">
-        <v>245.14</v>
+        <v>353.49430000000001</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -448,7 +449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
